--- a/TABULAR/PS4E9/ps4e9_experiments.xlsx
+++ b/TABULAR/PS4E9/ps4e9_experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Fold 0</t>
   </si>
@@ -138,6 +138,39 @@
   </si>
   <si>
     <t>{'objective': 'RMSE', 'verbose': 0, 'random_seed': 42, 'eval_metric': 'RMSE', 'grow_policy': 'Lossguide', 'bootstrap_type': 'Poisson', 'task_type': 'GPU', 'learning_rate': 0.01153083799677404, 'n_estimators': 1550, 'max_depth': 13, 'min_data_in_leaf': 63, 'num_leaves': 96, 'reg_lambda': 74.42786945287153, 'random_strength': 0.03782103405260509, 'early_stopping_rounds': 230, 'max_bin': 37}</t>
+  </si>
+  <si>
+    <t>{'objective': 'root_mean_squared_error', 'metric': 'rmse', 'verbosity': -1, 'boosting_type': 'gbdt', 'device': 'gpu', 'gpu_platform_id': 0, 'gpu_device_id': 0, 'learning_rate': 0.015161848245799338, 'n_estimators': 1500, 'max_depth': 8, 'min_child_weight': 7, 'subsample': 0.5907925682754065, 'colsample_bytree': 0.5473199107045899, 'num_leaves': 212, 'reg_alpha': 0.757124512629179, 'reg_lambda': 175.52229289915087, 'early_stopping_rounds': 450}</t>
+  </si>
+  <si>
+    <t>Yes. In addition to df_train_preprocessed also added column "is_high_resale_price_brand"</t>
+  </si>
+  <si>
+    <t>Yes. In addition to df_train_preprocessed also added column "is_high_resale_price_brand". Removed all rows with price &gt; 2 million</t>
+  </si>
+  <si>
+    <t>Stepwise param tuning</t>
+  </si>
+  <si>
+    <t>No param tuning</t>
+  </si>
+  <si>
+    <t>{'objective': 'RMSE', 'verbose': 0, 'random_seed': 42, 'eval_metric': 'RMSE', 'grow_policy': 'Lossguide', 'bootstrap_type': 'Poisson', 'task_type': 'GPU', 'learning_rate': 0.3206822806497228, 'n_estimators': 3900, 'max_depth': 8, 'min_data_in_leaf': 91, 'num_leaves': 244, 'subsample': 0.6167205946691925, 'reg_lambda': 69.31499338350862, 'random_strength': 0.31332152204849884, 'early_stopping_rounds': 450, 'max_bin': 148}</t>
+  </si>
+  <si>
+    <t>{'objective': 'RMSE', 'verbose': 0, 'random_seed': 42, 'eval_metric': 'RMSE', 'grow_policy': 'Lossguide', 'bootstrap_type': 'Poisson', 'task_type': 'GPU', 'learning_rate': 0.0053177066869090845, 'n_estimators': 4950, 'max_depth': 20, 'min_data_in_leaf': 54, 'num_leaves': 80, 'subsample': 0.5794761657510158, 'reg_lambda': 77.34261589424445, 'random_strength': 1.3283225060309047, 'early_stopping_rounds': 370, 'max_bin': 102}</t>
+  </si>
+  <si>
+    <t>Stepwise param tuning doesn't improve CV but seems to improve public LB</t>
+  </si>
+  <si>
+    <t>Original data addition improves CV by a good margin (120)</t>
+  </si>
+  <si>
+    <t>{'objective': 'root_mean_squared_error', 'metric': 'rmse', 'verbosity': -1, 'boosting_type': 'gbdt', 'device': 'gpu', 'gpu_platform_id': 0, 'gpu_device_id': 0, 'learning_rate': 0.04384599885192124, 'n_estimators': 1850, 'max_depth': 4, 'min_data_in_leaf': 79, 'num_leaves': 20, 'min_child_weight': 1.3000000000000003, 'subsample': 0.6909074597205864, 'colsample_bytree': 0.7928274099493369, 'reg_lambda': 178.39029552790532, 'reg_alpha': 1.704574120515208, 'early_stopping_rounds': 490, 'max_bin': 184}</t>
+  </si>
+  <si>
+    <t>Yes. In addition to df_train_withorig_preprocessed also added column "is_high_resale_price_brand"</t>
   </si>
 </sst>
 </file>
@@ -469,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,6 +654,9 @@
       <c r="K5" t="s">
         <v>5</v>
       </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -655,6 +691,225 @@
       </c>
       <c r="K6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>72308.323899914598</v>
+      </c>
+      <c r="D7">
+        <v>72616.067165513203</v>
+      </c>
+      <c r="E7">
+        <v>72285.977650000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>72274.441338015895</v>
+      </c>
+      <c r="D8">
+        <v>72570.0959099272</v>
+      </c>
+      <c r="E8">
+        <v>72289.109809999994</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>55727.830432820898</v>
+      </c>
+      <c r="D9">
+        <v>55079.174681969002</v>
+      </c>
+      <c r="E9">
+        <v>72282.213010000007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>72500.644300942498</v>
+      </c>
+      <c r="D10">
+        <v>72740.709222486606</v>
+      </c>
+      <c r="E10">
+        <v>72360.448000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>72211.5865115052</v>
+      </c>
+      <c r="D11">
+        <v>72521.678440415199</v>
+      </c>
+      <c r="E11">
+        <v>72400.854999999996</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>72145.475916821102</v>
+      </c>
+      <c r="D12">
+        <v>72522.784523276801</v>
+      </c>
+      <c r="E12">
+        <v>72334.615999999995</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E9/ps4e9_experiments.xlsx
+++ b/TABULAR/PS4E9/ps4e9_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Fold 0</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Yes. In addition to df_train_withorig_preprocessed also added column "is_high_resale_price_brand"</t>
+  </si>
+  <si>
+    <t>Derived features to capture feature interaction</t>
+  </si>
+  <si>
+    <t>Yes (stepwise)</t>
+  </si>
+  <si>
+    <t>Yes. Derived features to capture feature interaction</t>
+  </si>
+  <si>
+    <t>Performed while creating manual features</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,6 +922,41 @@
       </c>
       <c r="L12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>72319.257627726503</v>
+      </c>
+      <c r="D13">
+        <v>72523.834445755405</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E9/ps4e9_experiments.xlsx
+++ b/TABULAR/PS4E9/ps4e9_experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Fold 0</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>Performed while creating manual features</t>
+  </si>
+  <si>
+    <t>NeuralNetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label encoding of categorical features. All features except milage turned to categorical. </t>
+  </si>
+  <si>
+    <t>Missing values in numerical columns set to 0</t>
+  </si>
+  <si>
+    <t>ps4e9_nn version 6 on kaggle</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Ridge ensemble of 5,6,8,9,12</t>
   </si>
 </sst>
 </file>
@@ -514,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,6 +975,58 @@
       </c>
       <c r="L13" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>72954.856193882006</v>
+      </c>
+      <c r="E14">
+        <v>72407.968999999997</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>72561.519</v>
+      </c>
+      <c r="E15">
+        <v>72284.285000000003</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E9/ps4e9_experiments.xlsx
+++ b/TABULAR/PS4E9/ps4e9_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Fold 0</t>
   </si>
@@ -202,12 +202,532 @@
   <si>
     <t>Ridge ensemble of 5,6,8,9,12</t>
   </si>
+  <si>
+    <t>TabNetRegressor</t>
+  </si>
+  <si>
+    <t>ps4e9_nn version 8 on kaggle</t>
+  </si>
+  <si>
+    <t>ps4e9_experiments version 11</t>
+  </si>
+  <si>
+    <t>{'objective': 'reg:squarederror', 'eval_metric': 'rmse', 'seed': 42, 'verbosity': 0, 'device': 'cuda', 'tree_method': 'hist', 'learning_rate': 0.028614729311166577, 'n_estimators': 3200, 'max_depth': 4, 'min_child_weight': 17, 'subsample': 0.8642950041583155, 'colsample_bytree': 0.6804130458486328, 'reg_lambda': 3.8611185565274893, 'reg_alpha': 9.227741719171974, 'max_leaves': 157, 'early_stopping_rounds': 46, 'max_bin': 64, 'gamma': 1.2844801638262502}</t>
+  </si>
+  <si>
+    <t>Ridge ensemble of 5,6,8,9,12,14,15</t>
+  </si>
+  <si>
+    <t>ps4e9_nn version 9 on kaggle</t>
+  </si>
+  <si>
+    <t>ps4e9_experiments version 14</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>0.0026752932092600212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'n_estimators'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>4550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'max_depth'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'min_data_in_leaf'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'num_leaves'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'subsample'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>0.9417643579568004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'reg_lambda'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>99.65892476752238</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'random_strength'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>0.6286348851856994</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'early_stopping_rounds'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFBB2323"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'max_bin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF666666"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Use catboost handling on categorical features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +742,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3C4043"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFBB2323"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,16 +1073,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L15"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" customWidth="1"/>
@@ -1025,8 +1566,141 @@
       <c r="E15">
         <v>72284.285000000003</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L15" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>73191.930999999997</v>
+      </c>
+      <c r="E16">
+        <v>72843.551999999996</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>72649.847860470807</v>
+      </c>
+      <c r="E17">
+        <v>72369.418999999994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>72653.471238554805</v>
+      </c>
+      <c r="E18">
+        <v>72369.847999999998</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>72803.521757596594</v>
+      </c>
+      <c r="E19">
+        <v>72403.47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>72514.389784034094</v>
+      </c>
+      <c r="E20">
+        <v>72303.183000000005</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/PS4E9/ps4e9_experiments.xlsx
+++ b/TABULAR/PS4E9/ps4e9_experiments.xlsx
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
